--- a/data/trans_dic/P12B1_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales 16-59 años</t>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 77,72</t>
+          <t>1,66; 17,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 64,08</t>
+          <t>0,0; 14,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 62,49</t>
+          <t>1,31; 16,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,28; 53,17</t>
+          <t>0,0; 10,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 53,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 65,96</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 55,05</t>
+          <t>0,0; 9,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 50,05</t>
+          <t>0,0; 10,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,2; 53,31</t>
+          <t>0,75; 7,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 8,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 8,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 6,47</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,71</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 46,39</t>
+          <t>0,99; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,15</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 55,54</t>
+          <t>0,69; 6,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 60,82</t>
+          <t>1,18; 6,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,22; 57,2</t>
+          <t>0,97; 5,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 37,02</t>
+          <t>1,1; 6,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 44,87</t>
+          <t>0,46; 4,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 44,88</t>
+          <t>0,78; 3,65</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 5,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 4,53</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>59,57%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,19; 87,04</t>
+          <t>1,87; 10,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 63,22</t>
+          <t>0,59; 5,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,87; 81,23</t>
+          <t>2,28; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,08</t>
+          <t>2,14; 11,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 55,36</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 47,11</t>
+          <t>0,48; 4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 52,62</t>
+          <t>0,46; 3,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 48,76</t>
+          <t>1,1; 6,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 55,17</t>
+          <t>1,27; 5,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 3,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 5,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 7,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 48,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 43,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 46,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 40,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 44,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 45,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 39,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 38,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 41,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 5,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 3,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 4,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 4,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 3,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 3,82</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 3,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 4,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7381</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5767</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5063</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3550</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7381</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7675</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9220</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10146</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2135; 22419</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15071</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1496; 18266</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19177</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11357</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11264</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22117</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2039; 21330</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2016; 18114</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3329; 20397</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2800; 25096</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2199</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11638</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12822</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13328</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9535</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15527</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21173</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11746</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21818</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10311</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3733; 25612</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8859</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3454; 31540</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5466; 28550</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3672; 20646</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4119; 25193</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2158; 20218</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6981; 32545</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10941; 39203</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4845; 25021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10406; 44009</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16222</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5564</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15721</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18726</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5328</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4794</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10698</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20740</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10891</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20515</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29425</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6220; 33538</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1646; 15348</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6282; 31481</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7508; 39736</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14138</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1646; 15264</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1501; 12943</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4269; 24893</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9653; 40153</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3676; 22153</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9573; 35682</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14360; 52650</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25802</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21326</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23107</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36611</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17846</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18413</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18374</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24778</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43648</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39740</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41481</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61388</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12411; 46517</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10098; 38548</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11095; 41708</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19339; 66646</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8364; 32921</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8579; 31981</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9538; 34008</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12322; 43521</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26855; 69585</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24386; 61252</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25717; 64312</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38945; 91695</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
